--- a/0. Nomina/2. Descuentos - Retardos/2025/02. Retardos - FEB.xlsx
+++ b/0. Nomina/2. Descuentos - Retardos/2025/02. Retardos - FEB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Retardos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D17E43-4369-4BEF-B32D-CCB73A66DBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A38A1B7-E9F3-450D-BBF6-7F13516FDAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEA9F4EF-C237-4344-8D76-DA654B147599}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>Partícipes ForEver</t>
+    <t>Partícipes FOREVER</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,7 @@
       <c r="AI12" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SwEPmVRkTbs26JbfhsAKXh/t0r5O3/MrOTj9a8SFfYQP/5SwwiUg+S8jqTn5+YfgEH13T0Y1SZ6Nnf7TY4wHmA==" saltValue="v+j0sMSgrvo36u+FddfLRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3TwT+vgk1LZfIVGwgZOIT6rPygyN2iqFxMckc0cL5bNEycPC0phRmSG2Zgi3bRtHPqJoP6boegX3EqBjH5jiEg==" saltValue="hbPd9hzx38OCYlCvr1orQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C3:AG11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
